--- a/logs/gplearn_2022-06-17_14-14-12.xlsx
+++ b/logs/gplearn_2022-06-17_14-14-12.xlsx
@@ -347,15 +347,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -369,6 +369,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -391,38 +398,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -748,8 +748,8 @@
     <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="40.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="6.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="9" width="34.86214285714286" customWidth="1" bestFit="1"/>
